--- a/seminário/streamlit/data/Calorias Estrogonofe (respostas).xlsx
+++ b/seminário/streamlit/data/Calorias Estrogonofe (respostas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/808ebfd9a0d86213/ICC/Disciplinas/Disc - Python Intermediário/script/seminário/streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_33AF74FDAC69AB4CF4522C05DCB4A518C60D5810" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{112BDC37-1E94-4398-8BEB-A58C006D5390}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_33AF74FDAC69AB4CF4522C05DCB4A518C60D5810" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A626AAFD-9254-4F81-91FF-264402B940A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/seminário/streamlit/data/Calorias Estrogonofe (respostas).xlsx
+++ b/seminário/streamlit/data/Calorias Estrogonofe (respostas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/808ebfd9a0d86213/ICC/Disciplinas/Disc - Python Intermediário/script/seminário/streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_33AF74FDAC69AB4CF4522C05DCB4A518C60D5810" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A626AAFD-9254-4F81-91FF-264402B940A6}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_1468F7EC73306D5746B03D1DA4D6AC18260F6C20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{184FD764-A905-4FC2-AD0C-9102C7FCC7F2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Carimbo de data/hora</t>
+  </si>
+  <si>
+    <t>300g</t>
+  </si>
+  <si>
+    <t>400g</t>
   </si>
   <si>
     <t>gramas</t>
@@ -208,10 +214,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -220,13 +226,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -235,13 +241,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -339,7 +345,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:C24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:C69">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="gramas"/>
@@ -550,11 +556,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -570,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -819,14 +825,509 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="4">
         <v>45755.780091770837</v>
       </c>
-      <c r="B24" s="11">
-        <v>500</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="5">
+        <v>500</v>
+      </c>
+      <c r="C24" s="6">
         <v>680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>45763.480623449075</v>
+      </c>
+      <c r="B25" s="8">
+        <v>450</v>
+      </c>
+      <c r="C25" s="9">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>45763.480670104167</v>
+      </c>
+      <c r="B26" s="5">
+        <v>300</v>
+      </c>
+      <c r="C26" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>45763.480689652773</v>
+      </c>
+      <c r="B27" s="8">
+        <v>500</v>
+      </c>
+      <c r="C27" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>45763.480712442135</v>
+      </c>
+      <c r="B28" s="5">
+        <v>300</v>
+      </c>
+      <c r="C28" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>45763.480738854167</v>
+      </c>
+      <c r="B29" s="8">
+        <v>400</v>
+      </c>
+      <c r="C29" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>45763.480746967594</v>
+      </c>
+      <c r="B30" s="5">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>45763.480763032407</v>
+      </c>
+      <c r="B31" s="8">
+        <v>200</v>
+      </c>
+      <c r="C31" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>45763.480774270836</v>
+      </c>
+      <c r="B32" s="5">
+        <v>400</v>
+      </c>
+      <c r="C32" s="6">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>45763.480817141201</v>
+      </c>
+      <c r="B33" s="8">
+        <v>350</v>
+      </c>
+      <c r="C33" s="9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>45763.480835625</v>
+      </c>
+      <c r="B34" s="5">
+        <v>600</v>
+      </c>
+      <c r="C34" s="6">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>45763.480839826385</v>
+      </c>
+      <c r="B35" s="8">
+        <v>200</v>
+      </c>
+      <c r="C35" s="9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>45763.48084856481</v>
+      </c>
+      <c r="B36" s="5">
+        <v>300</v>
+      </c>
+      <c r="C36" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>45763.480853796296</v>
+      </c>
+      <c r="B37" s="8">
+        <v>200</v>
+      </c>
+      <c r="C37" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>45763.48086674769</v>
+      </c>
+      <c r="B38" s="5">
+        <v>300</v>
+      </c>
+      <c r="C38" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>45763.480870775464</v>
+      </c>
+      <c r="B39" s="8">
+        <v>300</v>
+      </c>
+      <c r="C39" s="9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>45763.480872175925</v>
+      </c>
+      <c r="B40" s="5">
+        <v>300</v>
+      </c>
+      <c r="C40" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>45763.480885104167</v>
+      </c>
+      <c r="B41" s="8">
+        <v>100</v>
+      </c>
+      <c r="C41" s="9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>45763.480898842594</v>
+      </c>
+      <c r="B42" s="5">
+        <v>657</v>
+      </c>
+      <c r="C42" s="6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>45763.480906620374</v>
+      </c>
+      <c r="B43" s="8">
+        <v>300</v>
+      </c>
+      <c r="C43" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>45763.48090855324</v>
+      </c>
+      <c r="B44" s="5">
+        <v>400</v>
+      </c>
+      <c r="C44" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>45763.480910358798</v>
+      </c>
+      <c r="B45" s="8">
+        <v>200</v>
+      </c>
+      <c r="C45" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45763.480921319446</v>
+      </c>
+      <c r="B46" s="5">
+        <v>200</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>45763.480931053244</v>
+      </c>
+      <c r="B47" s="8">
+        <v>500</v>
+      </c>
+      <c r="C47" s="9">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>45763.480946157404</v>
+      </c>
+      <c r="B48" s="5">
+        <v>500</v>
+      </c>
+      <c r="C48" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>45763.480977465282</v>
+      </c>
+      <c r="B49" s="8">
+        <v>400</v>
+      </c>
+      <c r="C49" s="9">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>45763.481023321758</v>
+      </c>
+      <c r="B50" s="5">
+        <v>355</v>
+      </c>
+      <c r="C50" s="6">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>45763.481040798608</v>
+      </c>
+      <c r="B51" s="8">
+        <v>400</v>
+      </c>
+      <c r="C51" s="9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>45763.481046180561</v>
+      </c>
+      <c r="B52" s="5">
+        <v>250</v>
+      </c>
+      <c r="C52" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>45763.481063229163</v>
+      </c>
+      <c r="B53" s="8">
+        <v>100</v>
+      </c>
+      <c r="C53" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>45763.481079583333</v>
+      </c>
+      <c r="B54" s="5">
+        <v>400</v>
+      </c>
+      <c r="C54" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>45763.481087314816</v>
+      </c>
+      <c r="B55" s="8">
+        <v>300</v>
+      </c>
+      <c r="C55" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>45763.481103229162</v>
+      </c>
+      <c r="B56" s="5">
+        <v>400</v>
+      </c>
+      <c r="C56" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>45763.481174837958</v>
+      </c>
+      <c r="B57" s="8">
+        <v>400</v>
+      </c>
+      <c r="C57" s="9">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>45763.481197754634</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>45763.481220081019</v>
+      </c>
+      <c r="B59" s="8">
+        <v>350</v>
+      </c>
+      <c r="C59" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>45763.481247025462</v>
+      </c>
+      <c r="B60" s="5">
+        <v>300</v>
+      </c>
+      <c r="C60" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>45763.481284247682</v>
+      </c>
+      <c r="B61" s="8">
+        <v>300</v>
+      </c>
+      <c r="C61" s="9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>45763.481299050924</v>
+      </c>
+      <c r="B62" s="5">
+        <v>500</v>
+      </c>
+      <c r="C62" s="6">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>45763.481518946763</v>
+      </c>
+      <c r="B63" s="8">
+        <v>400</v>
+      </c>
+      <c r="C63" s="9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>45763.481524710645</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>45763.481622523148</v>
+      </c>
+      <c r="B65" s="8">
+        <v>200</v>
+      </c>
+      <c r="C65" s="9">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>45763.481742418982</v>
+      </c>
+      <c r="B66" s="5">
+        <v>100</v>
+      </c>
+      <c r="C66" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>45763.481751921296</v>
+      </c>
+      <c r="B67" s="8">
+        <v>250</v>
+      </c>
+      <c r="C67" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>45763.481827662035</v>
+      </c>
+      <c r="B68" s="5">
+        <v>500</v>
+      </c>
+      <c r="C68" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <v>45763.482004988429</v>
+      </c>
+      <c r="B69" s="11">
+        <v>300</v>
+      </c>
+      <c r="C69" s="12">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
